--- a/tables/table_06_v2.xlsx
+++ b/tables/table_06_v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table_06" sheetId="1" r:id="rId1"/>
@@ -180,39 +180,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,6 +224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,57 +505,57 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E2" s="5">
         <v>0.46</v>
       </c>
       <c r="F2" s="5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G2" s="6">
         <v>87</v>
@@ -560,11 +563,11 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -581,20 +584,20 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="5">
         <v>0.46</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G4" s="6">
         <v>99</v>
@@ -602,7 +605,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
@@ -612,7 +615,7 @@
         <v>0.15</v>
       </c>
       <c r="E5" s="5">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -623,60 +626,60 @@
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>87</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>246</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>99</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>354</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>0.01</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E8" s="5">
         <v>0.21</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
+      <c r="F8" s="10">
+        <v>1.7E-5</v>
       </c>
       <c r="G8" s="6">
         <v>87</v>
@@ -684,11 +687,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5">
-        <v>0.01</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -697,7 +700,7 @@
         <v>0.84</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="G9" s="6">
         <v>246</v>
@@ -705,20 +708,20 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="5">
         <v>0.21</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
+      <c r="D10" s="10">
+        <v>1.7E-5</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G10" s="6">
         <v>99</v>
@@ -726,17 +729,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5">
         <v>0.84</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="E11" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -747,60 +750,60 @@
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>87</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>246</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>99</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>354</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
+      <c r="D14" s="10">
+        <v>5.4999999999999996E-10</v>
       </c>
       <c r="E14" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
+      <c r="F14" s="10">
+        <v>5.1000000000000002E-9</v>
       </c>
       <c r="G14" s="6">
         <v>87</v>
@@ -808,20 +811,20 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
+      <c r="C15" s="10">
+        <v>5.4999999999999996E-10</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
+      <c r="E15" s="10">
+        <v>2.9999999999999999E-19</v>
+      </c>
+      <c r="F15" s="10">
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="G15" s="6">
         <v>246</v>
@@ -829,20 +832,20 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
+      <c r="D16" s="10">
+        <v>5.1000000000000002E-9</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
+      <c r="F16" s="10">
+        <v>1.4000000000000001E-18</v>
       </c>
       <c r="G16" s="6">
         <v>99</v>
@@ -850,17 +853,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
+      <c r="C17" s="10">
+        <v>2.9999999999999999E-19</v>
+      </c>
+      <c r="D17" s="10">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.4000000000000001E-18</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -871,60 +874,60 @@
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>87</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>246</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>99</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>354</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
-        <v>0</v>
+      <c r="D20" s="10">
+        <v>3.4000000000000001E-10</v>
       </c>
       <c r="E20" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="G20" s="6">
         <v>87</v>
@@ -932,20 +935,20 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
+      <c r="C21" s="10">
+        <v>3.4000000000000001E-10</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
+      <c r="E21" s="10">
+        <v>1.8999999999999999E-25</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2.2999999999999999E-9</v>
       </c>
       <c r="G21" s="6">
         <v>246</v>
@@ -953,20 +956,20 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
+      <c r="F22" s="10">
+        <v>4.7999999999999999E-18</v>
       </c>
       <c r="G22" s="6">
         <v>99</v>
@@ -974,17 +977,17 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
+      <c r="C23" s="10">
+        <v>1.8999999999999999E-25</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.2999999999999999E-9</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4.7999999999999999E-18</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -995,47 +998,47 @@
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>87</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>246</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>99</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>354</v>
       </c>
-      <c r="G24" s="8"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="5">
@@ -1045,10 +1048,10 @@
         <v>0.3</v>
       </c>
       <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="F26" s="10">
+        <v>4.7999999999999996E-7</v>
       </c>
       <c r="G26" s="6">
         <v>87</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="5">
@@ -1066,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>5.8000000000000004E-6</v>
       </c>
       <c r="G27" s="6">
         <v>246</v>
@@ -1077,20 +1080,20 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="D28" s="10">
+        <v>4.7999999999999996E-7</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G28" s="6">
         <v>99</v>
@@ -1098,17 +1101,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D29" s="10">
+        <v>5.8000000000000004E-6</v>
       </c>
       <c r="E29" s="5">
-        <v>0.04</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -1119,22 +1122,22 @@
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>87</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>246</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>99</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>354</v>
       </c>
-      <c r="G30" s="8"/>
+      <c r="G30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
